--- a/Jogos_do_Dia/2023-10-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,46 +682,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="S2" t="n">
         <v>2.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -763,10 +763,10 @@
         <v>1.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.63</v>
@@ -787,10 +787,10 @@
         <v>1.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="K3" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="T3" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -969,13 +969,13 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>3.84</v>
       </c>
       <c r="S4" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1041,16 +1041,16 @@
         <v>1.41</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AL4" t="n">
         <v>1.88</v>
@@ -1059,16 +1059,16 @@
         <v>1.93</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.29</v>
@@ -1135,10 +1135,10 @@
         <v>4.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1247,25 +1247,25 @@
         <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L6" t="n">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
@@ -1274,10 +1274,10 @@
         <v>2.35</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
@@ -1319,10 +1319,10 @@
         <v>1.98</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AJ6" t="n">
         <v>1.68</v>
@@ -1337,22 +1337,22 @@
         <v>1.74</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,128 +1364,128 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>FK Bodo - Glimt</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K7" t="n">
         <v>5</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L7" t="n">
-        <v>4.55</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>1.11</v>
       </c>
       <c r="R7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y7" t="n">
         <v>3.25</v>
       </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="Z7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1.95</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>5.05</v>
+        <v>4.6</v>
       </c>
       <c r="K8" t="n">
         <v>3.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="n">
         <v>1.33</v>
@@ -1552,10 +1552,10 @@
         <v>3.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="U8" t="n">
         <v>1.75</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Bodo - Glimt</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.8</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="X9" t="n">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.48</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.71</v>
+        <v>3.41</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.11</v>
+        <v>1.38</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.42</v>
+        <v>1.95</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.53</v>
+        <v>1.55</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.81</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.26</v>
+        <v>3.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Porto II</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.33</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.75</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO10" t="n">
         <v>2.03</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.93</v>
-      </c>
       <c r="AP10" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,134 +1920,134 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.27</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
-        <v>16.75</v>
+        <v>9.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.95</v>
       </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH11" t="n">
         <v>1.23</v>
       </c>
-      <c r="AA11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AI11" t="n">
-        <v>4.7</v>
+        <v>3.56</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.58</v>
+        <v>1.82</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.6</v>
+        <v>3.04</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,134 +2059,134 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P12" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R12" t="n">
         <v>4.75</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P12" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.15</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>1.8</v>
       </c>
-      <c r="W12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AH12" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.56</v>
+        <v>4.7</v>
       </c>
       <c r="AJ12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>1.46</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Porto II</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.3</v>
+        <v>2.33</v>
       </c>
       <c r="H13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="U13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>1.25</v>
       </c>
-      <c r="R13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>2.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.36</v>
@@ -2386,10 +2386,10 @@
         <v>4.02</v>
       </c>
       <c r="S14" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
         <v>1.68</v>
@@ -2498,13 +2498,13 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.42</v>
@@ -2525,10 +2525,10 @@
         <v>3.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
         <v>1.94</v>
@@ -2603,7 +2603,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2615,134 +2615,134 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Talleres Córdoba</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K16" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>2.91</v>
+        <v>4.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="N16" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="O16" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>7.77</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>2.66</v>
       </c>
       <c r="S16" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC16" t="n">
         <v>1.22</v>
       </c>
-      <c r="Y16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.46</v>
-      </c>
       <c r="AD16" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AI16" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="AL16" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="AO16" t="n">
         <v>1.51</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,128 +2754,128 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>12</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P17" t="n">
         <v>11</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Talleres Córdoba</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Banfield</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="Q17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.6</v>
       </c>
-      <c r="H17" t="n">
+      <c r="W17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P17" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AM17" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.39</v>
+        <v>2.53</v>
       </c>
       <c r="AO17" t="n">
         <v>1.51</v>
       </c>
       <c r="AP17" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18">
@@ -2915,13 +2915,13 @@
         <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>6.3</v>
+        <v>5.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="M18" t="n">
         <v>1.33</v>
@@ -2945,7 +2945,7 @@
         <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3011,10 +3011,10 @@
         <v>1.27</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="19">
@@ -3054,13 +3054,13 @@
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L19" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>1.4</v>
@@ -3081,7 +3081,7 @@
         <v>3.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T19" t="n">
         <v>1.83</v>
@@ -3193,13 +3193,13 @@
         <v>3.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="M20" t="n">
         <v>1.44</v>
@@ -3220,10 +3220,10 @@
         <v>3.2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U20" t="n">
         <v>1.83</v>
@@ -3298,7 +3298,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,134 +3310,134 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.1</v>
       </c>
-      <c r="H21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="V21" t="n">
         <v>1.67</v>
       </c>
-      <c r="T21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA21" t="n">
         <v>2</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AB21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC21" t="n">
         <v>1.13</v>
       </c>
-      <c r="X21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.09</v>
-      </c>
       <c r="AD21" t="n">
-        <v>3.01</v>
+        <v>2.52</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.4</v>
+        <v>2.21</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.89</v>
+        <v>2.32</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.07</v>
+        <v>2.52</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.64</v>
+        <v>3.42</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="G22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J22" t="n">
         <v>3</v>
       </c>
-      <c r="H22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.34</v>
-      </c>
       <c r="K22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N22" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="R22" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL22" t="n">
         <v>1.91</v>
       </c>
-      <c r="W22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AM22" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="AN22" t="n">
-        <v>1.87</v>
+        <v>2.47</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.35</v>
+        <v>3.34</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,134 +3588,134 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.2</v>
       </c>
-      <c r="K23" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L23" t="n">
-        <v>2.18</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N23" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="AB23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC23" t="n">
         <v>1.19</v>
       </c>
-      <c r="R23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.1</v>
-      </c>
       <c r="AD23" t="n">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="AE23" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.88</v>
+        <v>2.32</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AI23" t="n">
-        <v>3.28</v>
+        <v>4.6</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="AK23" t="n">
-        <v>2.39</v>
+        <v>3.15</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="AM23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO23" t="n">
         <v>1.85</v>
       </c>
-      <c r="AN23" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1.49</v>
-      </c>
       <c r="AP23" t="n">
-        <v>3.34</v>
+        <v>2.35</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,128 +3727,128 @@
         </is>
       </c>
       <c r="D24" t="n">
+        <v>26</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P24" t="n">
         <v>13</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Real Zaragoza</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>7</v>
-      </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="R24" t="n">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="S24" t="n">
-        <v>2.62</v>
+        <v>1.65</v>
       </c>
       <c r="T24" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="X24" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.53</v>
+        <v>2.55</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.67</v>
+        <v>2.17</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AD24" t="n">
-        <v>2.52</v>
+        <v>3.01</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.21</v>
+        <v>4.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.2</v>
+        <v>4.15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.32</v>
+        <v>2.89</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.52</v>
+        <v>2.07</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="AP24" t="n">
-        <v>3.42</v>
+        <v>2.64</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25">
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="K25" t="n">
         <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="T25" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -4229,13 +4229,13 @@
         <v>2.74</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>1.89</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ28" t="n">
         <v>1.52</v>
@@ -4401,10 +4401,10 @@
         <v>1.63</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="29">
@@ -4447,10 +4447,10 @@
         <v>1.96</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="L29" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.51</v>
@@ -4471,10 +4471,10 @@
         <v>2.75</v>
       </c>
       <c r="S29" t="n">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="T29" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -4583,10 +4583,10 @@
         <v>4.35</v>
       </c>
       <c r="J30" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="K30" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
         <v>3.75</v>
@@ -4610,10 +4610,10 @@
         <v>3.58</v>
       </c>
       <c r="S30" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="U30" t="n">
         <v>1.74</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K31" t="n">
-        <v>6.3</v>
+        <v>5.8</v>
       </c>
       <c r="L31" t="n">
-        <v>13.6</v>
+        <v>12.25</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.55</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -4933,10 +4933,10 @@
         <v>3.15</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ32" t="n">
         <v>1.64</v>
@@ -4957,10 +4957,288 @@
         <v>1.41</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ32" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Argentina Primera División</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>11</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Platense</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Newell's Old Boys</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-10-30_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-30_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,22 +682,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>3.66</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="L2" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
@@ -718,16 +718,16 @@
         <v>2.92</v>
       </c>
       <c r="S2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>1.55</v>
@@ -739,10 +739,10 @@
         <v>1.32</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AB2" t="n">
         <v>0.87</v>
@@ -754,13 +754,13 @@
         <v>2.72</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="AF2" t="n">
         <v>7.1</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AH2" t="n">
         <v>1.29</v>
@@ -830,13 +830,13 @@
         <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.64</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
@@ -857,10 +857,10 @@
         <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -878,10 +878,10 @@
         <v>1.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AB3" t="n">
         <v>1.54</v>
@@ -969,13 +969,13 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
         <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>3.84</v>
       </c>
       <c r="S4" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
@@ -1108,13 +1108,13 @@
         <v>6.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="M5" t="n">
         <v>1.29</v>
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>1.91</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K6" t="n">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="L6" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.58</v>
@@ -1271,19 +1271,19 @@
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>1.53</v>
@@ -1310,13 +1310,13 @@
         <v>2.16</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.1</v>
+        <v>6.85</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AH6" t="n">
         <v>1.33</v>
@@ -1352,7 +1352,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,134 +1364,134 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FK Bodo - Glimt</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lillestrøm</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="W7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO7" t="n">
         <v>1.3</v>
       </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AP7" t="n">
-        <v>2.26</v>
+        <v>3.9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>FK Bodo - Glimt</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.25</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="W8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Y8" t="n">
         <v>3.25</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="Z8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA8" t="n">
         <v>1.25</v>
       </c>
-      <c r="R8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AB8" t="n">
-        <v>1.14</v>
+        <v>2.23</v>
       </c>
       <c r="AC8" t="n">
         <v>1.48</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.62</v>
+        <v>3.71</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.75</v>
+        <v>1.21</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>12.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.95</v>
+        <v>5.1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.2</v>
+        <v>3.42</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.75</v>
+        <v>2.53</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.45</v>
+        <v>1.81</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.25</v>
+        <v>2.26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK9" t="n">
         <v>2.2</v>
       </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="AL9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP9" t="n">
         <v>3.25</v>
       </c>
-      <c r="S9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="AQ9" t="n">
         <v>1.25</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,134 +1781,134 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Porto II</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>2.33</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>4.45</v>
       </c>
       <c r="J10" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>2.37</v>
+        <v>3.65</v>
       </c>
       <c r="M10" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="N10" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>1.25</v>
       </c>
-      <c r="R10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AK10" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO10" t="n">
         <v>1.93</v>
       </c>
-      <c r="AH10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>2.03</v>
-      </c>
       <c r="AP10" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Sweden Superettan</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1920,134 +1920,134 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AGF</t>
+          <t>GIF Sundsvall</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Randers</t>
+          <t>Örgryte</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P11" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P11" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>1.8</v>
       </c>
-      <c r="W11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AH11" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.56</v>
+        <v>4.7</v>
       </c>
       <c r="AJ11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>1.46</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>1.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sweden Superettan</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,134 +2059,134 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GIF Sundsvall</t>
+          <t>AGF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Örgryte</t>
+          <t>Randers</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="L12" t="n">
-        <v>2.35</v>
+        <v>3.65</v>
       </c>
       <c r="M12" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="O12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
-        <v>16.75</v>
+        <v>9.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="R12" t="n">
-        <v>4.75</v>
+        <v>3.15</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH12" t="n">
         <v>1.23</v>
       </c>
-      <c r="AA12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AI12" t="n">
-        <v>4.7</v>
+        <v>3.56</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.2</v>
+        <v>2.56</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.58</v>
+        <v>1.82</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.6</v>
+        <v>3.04</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Porto II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.33</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.45</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB13" t="n">
         <v>1.8</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="AC13" t="n">
         <v>1.65</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AD13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AP13" t="n">
         <v>2.1</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.28</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>2.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="M14" t="n">
         <v>1.36</v>
@@ -2386,10 +2386,10 @@
         <v>4.02</v>
       </c>
       <c r="S14" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
         <v>1.68</v>
@@ -2498,13 +2498,13 @@
         <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="M15" t="n">
         <v>1.42</v>
@@ -2525,7 +2525,7 @@
         <v>3.4</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T15" t="n">
         <v>1.67</v>
@@ -2603,7 +2603,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2615,134 +2615,134 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>MVV</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P16" t="n">
         <v>11</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Talleres Córdoba</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Banfield</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="Q16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="W16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P16" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AM16" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.39</v>
+        <v>2.53</v>
       </c>
       <c r="AO16" t="n">
         <v>1.51</v>
       </c>
       <c r="AP16" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2754,128 +2754,128 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Talleres Córdoba</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MVV</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="K17" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>2.91</v>
+        <v>4.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="N17" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="O17" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="P17" t="n">
-        <v>11</v>
+        <v>7.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>2.66</v>
       </c>
       <c r="S17" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.4</v>
+        <v>1.53</v>
       </c>
       <c r="U17" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.6</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="X17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC17" t="n">
         <v>1.22</v>
       </c>
-      <c r="Y17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1.46</v>
-      </c>
       <c r="AD17" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AI17" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="AL17" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="AO17" t="n">
         <v>1.51</v>
       </c>
       <c r="AP17" t="n">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="18">
@@ -2915,13 +2915,13 @@
         <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
         <v>1.33</v>
@@ -2942,10 +2942,10 @@
         <v>3.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="T18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>1.8</v>
@@ -3020,7 +3020,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,41 +3032,41 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Saint-Étienne</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="K19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="M19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O19" t="n">
         <v>1.06</v>
@@ -3075,91 +3075,91 @@
         <v>9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R19" t="n">
-        <v>3.67</v>
+        <v>3.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.91</v>
+        <v>2.23</v>
       </c>
       <c r="T19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.83</v>
       </c>
-      <c r="U19" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X19" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Y19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>1.66</v>
       </c>
-      <c r="Z19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1.69</v>
-      </c>
       <c r="AK19" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AL19" t="n">
         <v>2.12</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3171,41 +3171,41 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Saint-Étienne</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="K20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
-        <v>2.9</v>
+        <v>2.69</v>
       </c>
       <c r="M20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O20" t="n">
         <v>1.06</v>
@@ -3214,91 +3214,91 @@
         <v>9</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R20" t="n">
-        <v>3.2</v>
+        <v>3.67</v>
       </c>
       <c r="S20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AE20" t="n">
         <v>1.83</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AF20" t="n">
-        <v>8.699999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AI20" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AL20" t="n">
         <v>2.12</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AP20" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
@@ -3310,134 +3310,134 @@
         </is>
       </c>
       <c r="D21" t="n">
+        <v>26</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Molde</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tromsø</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Real Zaragoza</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7</v>
-      </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="R21" t="n">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="T21" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="X21" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.53</v>
+        <v>2.55</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.67</v>
+        <v>2.17</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="AD21" t="n">
-        <v>2.52</v>
+        <v>3.01</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.699999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.21</v>
+        <v>4.4</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.2</v>
+        <v>4.15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.32</v>
+        <v>2.89</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.8</v>
+        <v>2.17</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.52</v>
+        <v>2.07</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.42</v>
+        <v>2.64</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -3449,134 +3449,134 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="K22" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="M22" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="O22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="AB22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC22" t="n">
         <v>1.19</v>
       </c>
-      <c r="R22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1.1</v>
-      </c>
       <c r="AD22" t="n">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="AE22" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.88</v>
+        <v>2.32</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="AI22" t="n">
-        <v>3.28</v>
+        <v>4.6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="AK22" t="n">
-        <v>2.39</v>
+        <v>3.15</v>
       </c>
       <c r="AL22" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="AM22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO22" t="n">
         <v>1.85</v>
       </c>
-      <c r="AN22" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.49</v>
-      </c>
       <c r="AP22" t="n">
-        <v>3.34</v>
+        <v>2.35</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
@@ -3588,134 +3588,134 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="M23" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="N23" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="R23" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="S23" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL23" t="n">
         <v>1.91</v>
       </c>
-      <c r="W23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AM23" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.87</v>
+        <v>2.47</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.35</v>
+        <v>3.34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
@@ -3727,128 +3727,128 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Real Zaragoza</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.1</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="V24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y24" t="n">
         <v>1.53</v>
       </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="Z24" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA24" t="n">
         <v>2</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AB24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AC24" t="n">
         <v>1.13</v>
       </c>
-      <c r="X24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.09</v>
-      </c>
       <c r="AD24" t="n">
-        <v>3.01</v>
+        <v>2.52</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG24" t="n">
-        <v>4.4</v>
+        <v>2.21</v>
       </c>
       <c r="AH24" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AI24" t="n">
-        <v>4.15</v>
+        <v>3.2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.89</v>
+        <v>2.32</v>
       </c>
       <c r="AL24" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.17</v>
+        <v>1.8</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.07</v>
+        <v>2.52</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.64</v>
+        <v>3.42</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="25">
@@ -3888,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="T25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L26" t="n">
-        <v>2.87</v>
+        <v>2.63</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -4238,10 +4238,10 @@
         <v>2.85</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ27" t="n">
         <v>1.57</v>
@@ -4262,10 +4262,10 @@
         <v>1.54</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="28">
@@ -4444,13 +4444,13 @@
         <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="K29" t="n">
-        <v>3.23</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M29" t="n">
         <v>1.51</v>
@@ -4471,10 +4471,10 @@
         <v>2.75</v>
       </c>
       <c r="S29" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="T29" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="U29" t="n">
         <v>2</v>
@@ -4516,10 +4516,10 @@
         <v>3</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ29" t="n">
         <v>1.26</v>
@@ -4583,13 +4583,13 @@
         <v>4.35</v>
       </c>
       <c r="J30" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L30" t="n">
-        <v>3.75</v>
+        <v>3.16</v>
       </c>
       <c r="M30" t="n">
         <v>1.4</v>
@@ -4610,10 +4610,10 @@
         <v>3.58</v>
       </c>
       <c r="S30" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="T30" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U30" t="n">
         <v>1.74</v>
@@ -4722,13 +4722,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L31" t="n">
-        <v>12.25</v>
+        <v>8</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -4749,10 +4749,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T31" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3.8</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33">
@@ -5072,10 +5072,10 @@
         <v>2.09</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ33" t="n">
         <v>1.56</v>
@@ -5099,7 +5099,7 @@
         <v>3.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="34">
@@ -5139,13 +5139,13 @@
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="K34" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L34" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="M34" t="n">
         <v>1.44</v>
@@ -5166,10 +5166,10 @@
         <v>3.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
